--- a/inst/dados_premissas/2023/consumidores_b2b3.xlsx
+++ b/inst/dados_premissas/2023/consumidores_b2b3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,11 +413,6 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -455,9 +450,6 @@
       <c r="K2">
         <v>130161</v>
       </c>
-      <c r="L2">
-        <v>130408</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -495,9 +487,6 @@
       <c r="K3">
         <v>19867</v>
       </c>
-      <c r="L3">
-        <v>20934</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -535,9 +524,6 @@
       <c r="K4">
         <v>130453</v>
       </c>
-      <c r="L4">
-        <v>130465</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -575,9 +561,6 @@
       <c r="K5">
         <v>269901</v>
       </c>
-      <c r="L5">
-        <v>270687</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -615,9 +598,6 @@
       <c r="K6">
         <v>690406</v>
       </c>
-      <c r="L6">
-        <v>700431</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -655,9 +635,6 @@
       <c r="K7">
         <v>391036</v>
       </c>
-      <c r="L7">
-        <v>384617</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -695,9 +672,6 @@
       <c r="K8">
         <v>1522587</v>
       </c>
-      <c r="L8">
-        <v>1478575</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -735,9 +709,6 @@
       <c r="K9">
         <v>8539</v>
       </c>
-      <c r="L9">
-        <v>8566</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -775,9 +746,6 @@
       <c r="K10">
         <v>5993</v>
       </c>
-      <c r="L10">
-        <v>5702</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -815,9 +783,6 @@
       <c r="K11">
         <v>711152</v>
       </c>
-      <c r="L11">
-        <v>708478</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -855,9 +820,6 @@
       <c r="K12">
         <v>5942</v>
       </c>
-      <c r="L12">
-        <v>5361</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -895,9 +857,6 @@
       <c r="K13">
         <v>871114</v>
       </c>
-      <c r="L13">
-        <v>871982</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -935,9 +894,6 @@
       <c r="K14">
         <v>187044</v>
       </c>
-      <c r="L14">
-        <v>187003</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -975,9 +931,6 @@
       <c r="K15">
         <v>357993</v>
       </c>
-      <c r="L15">
-        <v>368511</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1015,9 +968,6 @@
       <c r="K16">
         <v>101386</v>
       </c>
-      <c r="L16">
-        <v>108356</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1055,9 +1005,6 @@
       <c r="K17">
         <v>52893</v>
       </c>
-      <c r="L17">
-        <v>53865</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1095,9 +1042,6 @@
       <c r="K18">
         <v>10863</v>
       </c>
-      <c r="L18">
-        <v>11064</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1135,9 +1079,6 @@
       <c r="K19">
         <v>3657</v>
       </c>
-      <c r="L19">
-        <v>3740</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1175,9 +1116,6 @@
       <c r="K20">
         <v>7044</v>
       </c>
-      <c r="L20">
-        <v>7414</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1215,9 +1153,6 @@
       <c r="K21">
         <v>45816</v>
       </c>
-      <c r="L21">
-        <v>45648</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1292,9 +1227,6 @@
       <c r="K23">
         <v>344355</v>
       </c>
-      <c r="L23">
-        <v>341208</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1332,9 +1264,6 @@
       <c r="K24">
         <v>172874</v>
       </c>
-      <c r="L24">
-        <v>175722</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1372,9 +1301,6 @@
       <c r="K25">
         <v>561</v>
       </c>
-      <c r="L25">
-        <v>552</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1412,9 +1338,6 @@
       <c r="K26">
         <v>1805</v>
       </c>
-      <c r="L26">
-        <v>1847</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1452,9 +1375,6 @@
       <c r="K27">
         <v>377155</v>
       </c>
-      <c r="L27">
-        <v>379421</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1492,9 +1412,6 @@
       <c r="K28">
         <v>8117</v>
       </c>
-      <c r="L28">
-        <v>8178</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1532,9 +1449,6 @@
       <c r="K29">
         <v>46488</v>
       </c>
-      <c r="L29">
-        <v>47156</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1603,9 +1517,6 @@
       <c r="K31">
         <v>176792</v>
       </c>
-      <c r="L31">
-        <v>179061</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1643,9 +1554,6 @@
       <c r="K32">
         <v>302837</v>
       </c>
-      <c r="L32">
-        <v>305886</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1683,9 +1591,6 @@
       <c r="K33">
         <v>704622</v>
       </c>
-      <c r="L33">
-        <v>725784</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1723,9 +1628,6 @@
       <c r="K34">
         <v>226980</v>
       </c>
-      <c r="L34">
-        <v>210645</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1763,9 +1665,6 @@
       <c r="K35">
         <v>447563</v>
       </c>
-      <c r="L35">
-        <v>455090</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1840,9 +1739,6 @@
       <c r="K37">
         <v>236260</v>
       </c>
-      <c r="L37">
-        <v>263951</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1880,9 +1776,6 @@
       <c r="K38">
         <v>116764</v>
       </c>
-      <c r="L38">
-        <v>115655</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1920,9 +1813,6 @@
       <c r="K39">
         <v>463518</v>
       </c>
-      <c r="L39">
-        <v>452283</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1960,9 +1850,6 @@
       <c r="K40">
         <v>218479</v>
       </c>
-      <c r="L40">
-        <v>220217</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2000,9 +1887,6 @@
       <c r="K41">
         <v>364855</v>
       </c>
-      <c r="L41">
-        <v>369873</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2040,9 +1924,6 @@
       <c r="K42">
         <v>226100</v>
       </c>
-      <c r="L42">
-        <v>229606</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2080,9 +1961,6 @@
       <c r="K43">
         <v>171671</v>
       </c>
-      <c r="L43">
-        <v>171201</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2120,9 +1998,6 @@
       <c r="K44">
         <v>76981</v>
       </c>
-      <c r="L44">
-        <v>77148</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2160,9 +2035,6 @@
       <c r="K45">
         <v>118868</v>
       </c>
-      <c r="L45">
-        <v>121102</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2200,9 +2072,6 @@
       <c r="K46">
         <v>90060</v>
       </c>
-      <c r="L46">
-        <v>89134</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2240,9 +2109,6 @@
       <c r="K47">
         <v>1832</v>
       </c>
-      <c r="L47">
-        <v>1905</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2280,9 +2146,6 @@
       <c r="K48">
         <v>306360</v>
       </c>
-      <c r="L48">
-        <v>300974</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2320,9 +2183,6 @@
       <c r="K49">
         <v>1927</v>
       </c>
-      <c r="L49">
-        <v>1965</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2360,9 +2220,6 @@
       <c r="K50">
         <v>255248</v>
       </c>
-      <c r="L50">
-        <v>249185</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2400,9 +2257,6 @@
       <c r="K51">
         <v>1907</v>
       </c>
-      <c r="L51">
-        <v>1854</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2440,9 +2294,6 @@
       <c r="K52">
         <v>461335</v>
       </c>
-      <c r="L52">
-        <v>446609</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2480,9 +2331,6 @@
       <c r="K53">
         <v>27019</v>
       </c>
-      <c r="L53">
-        <v>28644</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2520,9 +2368,6 @@
       <c r="K54">
         <v>12610</v>
       </c>
-      <c r="L54">
-        <v>12088</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2559,9 +2404,6 @@
       </c>
       <c r="K55">
         <v>6307</v>
-      </c>
-      <c r="L55">
-        <v>6319</v>
       </c>
     </row>
   </sheetData>

--- a/inst/dados_premissas/2023/consumidores_b2b3.xlsx
+++ b/inst/dados_premissas/2023/consumidores_b2b3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,11 @@
           <t>2022</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -450,6 +455,9 @@
       <c r="K2">
         <v>130161</v>
       </c>
+      <c r="L2">
+        <v>130067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,6 +495,9 @@
       <c r="K3">
         <v>19867</v>
       </c>
+      <c r="L3">
+        <v>20996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +535,9 @@
       <c r="K4">
         <v>130453</v>
       </c>
+      <c r="L4">
+        <v>131058</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -561,6 +575,9 @@
       <c r="K5">
         <v>269901</v>
       </c>
+      <c r="L5">
+        <v>270962</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -598,6 +615,9 @@
       <c r="K6">
         <v>690406</v>
       </c>
+      <c r="L6">
+        <v>700737</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -635,6 +655,9 @@
       <c r="K7">
         <v>391036</v>
       </c>
+      <c r="L7">
+        <v>385615</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -672,6 +695,9 @@
       <c r="K8">
         <v>1522587</v>
       </c>
+      <c r="L8">
+        <v>1475318</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -709,6 +735,9 @@
       <c r="K9">
         <v>8539</v>
       </c>
+      <c r="L9">
+        <v>8541</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -746,6 +775,9 @@
       <c r="K10">
         <v>5993</v>
       </c>
+      <c r="L10">
+        <v>5699</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -783,6 +815,9 @@
       <c r="K11">
         <v>711152</v>
       </c>
+      <c r="L11">
+        <v>707785</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -820,6 +855,9 @@
       <c r="K12">
         <v>5942</v>
       </c>
+      <c r="L12">
+        <v>5386</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -857,6 +895,9 @@
       <c r="K13">
         <v>871114</v>
       </c>
+      <c r="L13">
+        <v>872385</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -894,6 +935,9 @@
       <c r="K14">
         <v>187044</v>
       </c>
+      <c r="L14">
+        <v>187258</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -931,6 +975,9 @@
       <c r="K15">
         <v>357993</v>
       </c>
+      <c r="L15">
+        <v>369433</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -968,6 +1015,9 @@
       <c r="K16">
         <v>101386</v>
       </c>
+      <c r="L16">
+        <v>107394</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1005,6 +1055,9 @@
       <c r="K17">
         <v>52893</v>
       </c>
+      <c r="L17">
+        <v>53213</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1042,6 +1095,9 @@
       <c r="K18">
         <v>10863</v>
       </c>
+      <c r="L18">
+        <v>11065</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1079,6 +1135,9 @@
       <c r="K19">
         <v>3657</v>
       </c>
+      <c r="L19">
+        <v>3748</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1116,6 +1175,9 @@
       <c r="K20">
         <v>7044</v>
       </c>
+      <c r="L20">
+        <v>7455</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1153,1257 +1215,1288 @@
       <c r="K21">
         <v>45816</v>
       </c>
+      <c r="L21">
+        <v>45242</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EBO</t>
+          <t>EDP ES</t>
         </is>
       </c>
       <c r="B22">
-        <v>30312</v>
+        <v>303195</v>
       </c>
       <c r="C22">
-        <v>31045</v>
+        <v>310835</v>
       </c>
       <c r="D22">
-        <v>31771</v>
+        <v>320383</v>
       </c>
       <c r="E22">
-        <v>31811</v>
+        <v>325438</v>
       </c>
       <c r="F22">
-        <v>31827</v>
+        <v>333405</v>
       </c>
       <c r="G22">
-        <v>31886</v>
+        <v>340162</v>
       </c>
       <c r="H22">
-        <v>31964</v>
+        <v>344487</v>
       </c>
       <c r="I22">
-        <v>32313</v>
+        <v>346275</v>
       </c>
       <c r="J22">
-        <v>32338</v>
+        <v>346623</v>
       </c>
       <c r="K22">
-        <v>27579</v>
+        <v>344355</v>
+      </c>
+      <c r="L22">
+        <v>340267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EDP ES</t>
+          <t>EDP SP</t>
         </is>
       </c>
       <c r="B23">
-        <v>303195</v>
+        <v>142611</v>
       </c>
       <c r="C23">
-        <v>310835</v>
+        <v>147541</v>
       </c>
       <c r="D23">
-        <v>320383</v>
+        <v>150645</v>
       </c>
       <c r="E23">
-        <v>325438</v>
+        <v>153859</v>
       </c>
       <c r="F23">
-        <v>333405</v>
+        <v>157241</v>
       </c>
       <c r="G23">
-        <v>340162</v>
+        <v>159127</v>
       </c>
       <c r="H23">
-        <v>344487</v>
+        <v>161672</v>
       </c>
       <c r="I23">
-        <v>346275</v>
+        <v>165316</v>
       </c>
       <c r="J23">
-        <v>346623</v>
+        <v>170431</v>
       </c>
       <c r="K23">
-        <v>344355</v>
+        <v>172874</v>
+      </c>
+      <c r="L23">
+        <v>176886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EDP SP</t>
+          <t>EFLJC</t>
         </is>
       </c>
       <c r="B24">
-        <v>142611</v>
+        <v>467</v>
       </c>
       <c r="C24">
-        <v>147541</v>
+        <v>537</v>
       </c>
       <c r="D24">
-        <v>150645</v>
+        <v>542</v>
       </c>
       <c r="E24">
-        <v>153859</v>
+        <v>531</v>
       </c>
       <c r="F24">
-        <v>157241</v>
+        <v>527</v>
       </c>
       <c r="G24">
-        <v>159127</v>
+        <v>509</v>
       </c>
       <c r="H24">
-        <v>161672</v>
+        <v>525</v>
       </c>
       <c r="I24">
-        <v>165316</v>
+        <v>539</v>
       </c>
       <c r="J24">
-        <v>170431</v>
+        <v>544</v>
       </c>
       <c r="K24">
-        <v>172874</v>
+        <v>561</v>
+      </c>
+      <c r="L24">
+        <v>548</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EFLJC</t>
+          <t>EFLUL</t>
         </is>
       </c>
       <c r="B25">
-        <v>467</v>
+        <v>1686</v>
       </c>
       <c r="C25">
-        <v>537</v>
+        <v>1702</v>
       </c>
       <c r="D25">
-        <v>542</v>
+        <v>1704</v>
       </c>
       <c r="E25">
-        <v>531</v>
+        <v>1720</v>
       </c>
       <c r="F25">
-        <v>527</v>
+        <v>1740</v>
       </c>
       <c r="G25">
-        <v>509</v>
+        <v>1742</v>
       </c>
       <c r="H25">
-        <v>525</v>
+        <v>1723</v>
       </c>
       <c r="I25">
-        <v>539</v>
+        <v>1779</v>
       </c>
       <c r="J25">
-        <v>544</v>
+        <v>1791</v>
       </c>
       <c r="K25">
-        <v>561</v>
+        <v>1805</v>
+      </c>
+      <c r="L25">
+        <v>1850</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EFLUL</t>
+          <t>ELEKTRO</t>
         </is>
       </c>
       <c r="B26">
-        <v>1686</v>
+        <v>353852</v>
       </c>
       <c r="C26">
-        <v>1702</v>
+        <v>359095</v>
       </c>
       <c r="D26">
-        <v>1704</v>
+        <v>362582</v>
       </c>
       <c r="E26">
-        <v>1720</v>
+        <v>364867</v>
       </c>
       <c r="F26">
-        <v>1740</v>
+        <v>367288</v>
       </c>
       <c r="G26">
-        <v>1742</v>
+        <v>369963</v>
       </c>
       <c r="H26">
-        <v>1723</v>
+        <v>369587</v>
       </c>
       <c r="I26">
-        <v>1779</v>
+        <v>372743</v>
       </c>
       <c r="J26">
-        <v>1791</v>
+        <v>375361</v>
       </c>
       <c r="K26">
-        <v>1805</v>
+        <v>377155</v>
+      </c>
+      <c r="L26">
+        <v>379649</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELEKTRO</t>
+          <t>ELETROCAR</t>
         </is>
       </c>
       <c r="B27">
-        <v>353852</v>
+        <v>7905</v>
       </c>
       <c r="C27">
-        <v>359095</v>
+        <v>7991</v>
       </c>
       <c r="D27">
-        <v>362582</v>
+        <v>7992</v>
       </c>
       <c r="E27">
-        <v>364867</v>
+        <v>8085</v>
       </c>
       <c r="F27">
-        <v>367288</v>
+        <v>8119</v>
       </c>
       <c r="G27">
-        <v>369963</v>
+        <v>8134</v>
       </c>
       <c r="H27">
-        <v>369587</v>
+        <v>8194</v>
       </c>
       <c r="I27">
-        <v>372743</v>
+        <v>8160</v>
       </c>
       <c r="J27">
-        <v>375361</v>
+        <v>8106</v>
       </c>
       <c r="K27">
-        <v>377155</v>
+        <v>8117</v>
+      </c>
+      <c r="L27">
+        <v>8132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ELETROCAR</t>
+          <t>ELFSM</t>
         </is>
       </c>
       <c r="B28">
-        <v>7905</v>
+        <v>37853</v>
       </c>
       <c r="C28">
-        <v>7991</v>
+        <v>39414</v>
       </c>
       <c r="D28">
-        <v>7992</v>
+        <v>40810</v>
       </c>
       <c r="E28">
-        <v>8085</v>
+        <v>41639</v>
       </c>
       <c r="F28">
-        <v>8119</v>
+        <v>42546</v>
       </c>
       <c r="G28">
-        <v>8134</v>
+        <v>42611</v>
       </c>
       <c r="H28">
-        <v>8194</v>
+        <v>43720</v>
       </c>
       <c r="I28">
-        <v>8160</v>
+        <v>44462</v>
       </c>
       <c r="J28">
-        <v>8106</v>
+        <v>45558</v>
       </c>
       <c r="K28">
-        <v>8117</v>
+        <v>46488</v>
+      </c>
+      <c r="L28">
+        <v>47022</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ELFSM</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="B29">
-        <v>37853</v>
+        <v>120214</v>
       </c>
       <c r="C29">
-        <v>39414</v>
+        <v>121806</v>
       </c>
       <c r="D29">
-        <v>40810</v>
+        <v>123205</v>
       </c>
       <c r="E29">
-        <v>41639</v>
+        <v>124820</v>
       </c>
       <c r="F29">
-        <v>42546</v>
+        <v>126183</v>
       </c>
       <c r="G29">
-        <v>42611</v>
+        <v>127403</v>
       </c>
       <c r="H29">
-        <v>43720</v>
+        <v>127348</v>
       </c>
       <c r="I29">
-        <v>44462</v>
+        <v>127777</v>
       </c>
       <c r="J29">
-        <v>45558</v>
+        <v>12722</v>
       </c>
       <c r="K29">
-        <v>46488</v>
+        <v>12686</v>
+      </c>
+      <c r="L29">
+        <v>12656</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMG</t>
+          <t>EMS</t>
         </is>
       </c>
       <c r="B30">
-        <v>108455</v>
+        <v>173684</v>
       </c>
       <c r="C30">
-        <v>110013</v>
+        <v>179073</v>
       </c>
       <c r="D30">
-        <v>111305</v>
+        <v>181721</v>
       </c>
       <c r="E30">
-        <v>112782</v>
+        <v>184376</v>
       </c>
       <c r="F30">
-        <v>114156</v>
+        <v>186941</v>
       </c>
       <c r="G30">
-        <v>114820</v>
+        <v>185615</v>
       </c>
       <c r="H30">
-        <v>114714</v>
+        <v>185479</v>
       </c>
       <c r="I30">
-        <v>115100</v>
+        <v>185558</v>
+      </c>
+      <c r="J30">
+        <v>186208</v>
+      </c>
+      <c r="K30">
+        <v>176792</v>
+      </c>
+      <c r="L30">
+        <v>178852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EMS</t>
+          <t>EMT</t>
         </is>
       </c>
       <c r="B31">
-        <v>173684</v>
+        <v>280701</v>
       </c>
       <c r="C31">
-        <v>179073</v>
+        <v>288052</v>
       </c>
       <c r="D31">
-        <v>181721</v>
+        <v>292173</v>
       </c>
       <c r="E31">
-        <v>184376</v>
+        <v>292097</v>
       </c>
       <c r="F31">
-        <v>186941</v>
+        <v>297549</v>
       </c>
       <c r="G31">
-        <v>185615</v>
+        <v>305909</v>
       </c>
       <c r="H31">
-        <v>185479</v>
+        <v>317454</v>
       </c>
       <c r="I31">
-        <v>185558</v>
+        <v>325132</v>
       </c>
       <c r="J31">
-        <v>186208</v>
+        <v>331478</v>
       </c>
       <c r="K31">
-        <v>176792</v>
+        <v>302837</v>
+      </c>
+      <c r="L31">
+        <v>306133</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMT</t>
+          <t>ENEL CE</t>
         </is>
       </c>
       <c r="B32">
-        <v>280701</v>
+        <v>665377</v>
       </c>
       <c r="C32">
-        <v>288052</v>
+        <v>697460</v>
       </c>
       <c r="D32">
-        <v>292173</v>
+        <v>760354</v>
       </c>
       <c r="E32">
-        <v>292097</v>
+        <v>778632</v>
       </c>
       <c r="F32">
-        <v>297549</v>
+        <v>776041</v>
       </c>
       <c r="G32">
-        <v>305909</v>
+        <v>744135</v>
       </c>
       <c r="H32">
-        <v>317454</v>
+        <v>784667</v>
       </c>
       <c r="I32">
-        <v>325132</v>
+        <v>803635</v>
       </c>
       <c r="J32">
-        <v>331478</v>
+        <v>1009945</v>
       </c>
       <c r="K32">
-        <v>302837</v>
+        <v>704622</v>
+      </c>
+      <c r="L32">
+        <v>646116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENEL CE</t>
+          <t>ENEL RJ</t>
         </is>
       </c>
       <c r="B33">
-        <v>665377</v>
+        <v>229593</v>
       </c>
       <c r="C33">
-        <v>697460</v>
+        <v>232407</v>
       </c>
       <c r="D33">
-        <v>760354</v>
+        <v>232998</v>
       </c>
       <c r="E33">
-        <v>778632</v>
+        <v>229747</v>
       </c>
       <c r="F33">
-        <v>776041</v>
+        <v>219325</v>
       </c>
       <c r="G33">
-        <v>744135</v>
+        <v>233074</v>
       </c>
       <c r="H33">
-        <v>784667</v>
+        <v>219828</v>
       </c>
       <c r="I33">
-        <v>803635</v>
+        <v>213208</v>
       </c>
       <c r="J33">
-        <v>1009945</v>
+        <v>197982</v>
       </c>
       <c r="K33">
-        <v>704622</v>
+        <v>226980</v>
+      </c>
+      <c r="L33">
+        <v>218938</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENEL RJ</t>
+          <t>ENEL SP</t>
         </is>
       </c>
       <c r="B34">
-        <v>229593</v>
+        <v>419484</v>
       </c>
       <c r="C34">
-        <v>232407</v>
+        <v>397912</v>
       </c>
       <c r="D34">
-        <v>232998</v>
+        <v>442888</v>
       </c>
       <c r="E34">
-        <v>229747</v>
+        <v>430897</v>
       </c>
       <c r="F34">
-        <v>219325</v>
+        <v>432058</v>
       </c>
       <c r="G34">
-        <v>233074</v>
+        <v>436148</v>
       </c>
       <c r="H34">
-        <v>219828</v>
+        <v>446575</v>
       </c>
       <c r="I34">
-        <v>213208</v>
+        <v>442300</v>
       </c>
       <c r="J34">
-        <v>197982</v>
+        <v>440241</v>
       </c>
       <c r="K34">
-        <v>226980</v>
+        <v>447563</v>
+      </c>
+      <c r="L34">
+        <v>462124</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENEL SP</t>
+          <t>EPB</t>
         </is>
       </c>
       <c r="B35">
-        <v>419484</v>
+        <v>257841</v>
       </c>
       <c r="C35">
-        <v>397912</v>
+        <v>266030</v>
       </c>
       <c r="D35">
-        <v>442888</v>
+        <v>271581</v>
       </c>
       <c r="E35">
-        <v>430897</v>
+        <v>274088</v>
       </c>
       <c r="F35">
-        <v>432058</v>
+        <v>277374</v>
       </c>
       <c r="G35">
-        <v>436148</v>
+        <v>280411</v>
       </c>
       <c r="H35">
-        <v>446575</v>
+        <v>283615</v>
       </c>
       <c r="I35">
-        <v>442300</v>
+        <v>286986</v>
       </c>
       <c r="J35">
-        <v>440241</v>
+        <v>287200</v>
       </c>
       <c r="K35">
-        <v>447563</v>
+        <v>263839</v>
+      </c>
+      <c r="L35">
+        <v>258417</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENF</t>
+          <t>EQUATORIAL AL</t>
         </is>
       </c>
       <c r="B36">
-        <v>11759</v>
+        <v>78662</v>
       </c>
       <c r="C36">
-        <v>11793</v>
+        <v>81384</v>
       </c>
       <c r="D36">
-        <v>11900</v>
+        <v>82932</v>
       </c>
       <c r="E36">
-        <v>12038</v>
+        <v>88046</v>
       </c>
       <c r="F36">
-        <v>12027</v>
+        <v>90881</v>
       </c>
       <c r="G36">
-        <v>12583</v>
+        <v>91062</v>
       </c>
       <c r="H36">
-        <v>12634</v>
+        <v>99185</v>
       </c>
       <c r="I36">
-        <v>12677</v>
+        <v>109960</v>
       </c>
       <c r="J36">
-        <v>12722</v>
+        <v>110393</v>
       </c>
       <c r="K36">
-        <v>12686</v>
+        <v>116764</v>
+      </c>
+      <c r="L36">
+        <v>115317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EPB</t>
+          <t>EQUATORIAL GO</t>
         </is>
       </c>
       <c r="B37">
-        <v>227529</v>
+        <v>417702</v>
       </c>
       <c r="C37">
-        <v>234985</v>
+        <v>423693</v>
       </c>
       <c r="D37">
-        <v>239810</v>
+        <v>424993</v>
       </c>
       <c r="E37">
-        <v>242277</v>
+        <v>419811</v>
       </c>
       <c r="F37">
-        <v>245547</v>
+        <v>427131</v>
       </c>
       <c r="G37">
-        <v>248525</v>
+        <v>430255</v>
       </c>
       <c r="H37">
-        <v>251651</v>
+        <v>424486</v>
       </c>
       <c r="I37">
-        <v>254673</v>
+        <v>430302</v>
       </c>
       <c r="J37">
-        <v>254862</v>
+        <v>437240</v>
       </c>
       <c r="K37">
-        <v>236260</v>
+        <v>463518</v>
+      </c>
+      <c r="L37">
+        <v>452126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EQUATORIAL AL</t>
+          <t>EQUATORIAL MA</t>
         </is>
       </c>
       <c r="B38">
-        <v>78662</v>
+        <v>230010</v>
       </c>
       <c r="C38">
-        <v>81384</v>
+        <v>241317</v>
       </c>
       <c r="D38">
-        <v>82932</v>
+        <v>246960</v>
       </c>
       <c r="E38">
-        <v>88046</v>
+        <v>251166</v>
       </c>
       <c r="F38">
-        <v>90881</v>
+        <v>253112</v>
       </c>
       <c r="G38">
-        <v>91062</v>
+        <v>246200</v>
       </c>
       <c r="H38">
-        <v>99185</v>
+        <v>268743</v>
       </c>
       <c r="I38">
-        <v>109960</v>
+        <v>283018</v>
       </c>
       <c r="J38">
-        <v>110393</v>
+        <v>299084</v>
       </c>
       <c r="K38">
-        <v>116764</v>
+        <v>218479</v>
+      </c>
+      <c r="L38">
+        <v>219504</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EQUATORIAL GO</t>
+          <t>EQUATORIAL PA</t>
         </is>
       </c>
       <c r="B39">
-        <v>417702</v>
+        <v>292466</v>
       </c>
       <c r="C39">
-        <v>423693</v>
+        <v>299009</v>
       </c>
       <c r="D39">
-        <v>424993</v>
+        <v>318995</v>
       </c>
       <c r="E39">
-        <v>419811</v>
+        <v>342429</v>
       </c>
       <c r="F39">
-        <v>427131</v>
+        <v>364887</v>
       </c>
       <c r="G39">
-        <v>430255</v>
+        <v>367400</v>
       </c>
       <c r="H39">
-        <v>424486</v>
+        <v>382254</v>
       </c>
       <c r="I39">
-        <v>430302</v>
+        <v>367484</v>
       </c>
       <c r="J39">
-        <v>437240</v>
+        <v>373892</v>
       </c>
       <c r="K39">
-        <v>463518</v>
+        <v>364855</v>
+      </c>
+      <c r="L39">
+        <v>370576</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EQUATORIAL MA</t>
+          <t>EQUATORIAL PI</t>
         </is>
       </c>
       <c r="B40">
-        <v>230010</v>
+        <v>132830</v>
       </c>
       <c r="C40">
-        <v>241317</v>
+        <v>136225</v>
       </c>
       <c r="D40">
-        <v>246960</v>
+        <v>139416</v>
       </c>
       <c r="E40">
-        <v>251166</v>
+        <v>146395</v>
       </c>
       <c r="F40">
-        <v>253112</v>
+        <v>150358</v>
       </c>
       <c r="G40">
-        <v>246200</v>
+        <v>148347</v>
       </c>
       <c r="H40">
-        <v>268743</v>
+        <v>184247</v>
       </c>
       <c r="I40">
-        <v>283018</v>
+        <v>226558</v>
       </c>
       <c r="J40">
-        <v>299084</v>
+        <v>231144</v>
       </c>
       <c r="K40">
-        <v>218479</v>
+        <v>226100</v>
+      </c>
+      <c r="L40">
+        <v>228574</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EQUATORIAL PA</t>
+          <t>ERO</t>
         </is>
       </c>
       <c r="B41">
-        <v>292466</v>
+        <v>160733</v>
       </c>
       <c r="C41">
-        <v>299009</v>
+        <v>163384</v>
       </c>
       <c r="D41">
-        <v>318995</v>
+        <v>163723</v>
       </c>
       <c r="E41">
-        <v>342429</v>
+        <v>167692</v>
       </c>
       <c r="F41">
-        <v>364887</v>
+        <v>172526</v>
       </c>
       <c r="G41">
-        <v>367400</v>
+        <v>175843</v>
       </c>
       <c r="H41">
-        <v>382254</v>
+        <v>176262</v>
       </c>
       <c r="I41">
-        <v>367484</v>
+        <v>176554</v>
       </c>
       <c r="J41">
-        <v>373892</v>
+        <v>175259</v>
       </c>
       <c r="K41">
-        <v>364855</v>
+        <v>171671</v>
+      </c>
+      <c r="L41">
+        <v>171101</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EQUATORIAL PI</t>
+          <t>ESE</t>
         </is>
       </c>
       <c r="B42">
-        <v>132830</v>
+        <v>68045</v>
       </c>
       <c r="C42">
-        <v>136225</v>
+        <v>69503</v>
       </c>
       <c r="D42">
-        <v>139416</v>
+        <v>70420</v>
       </c>
       <c r="E42">
-        <v>146395</v>
+        <v>71863</v>
       </c>
       <c r="F42">
-        <v>150358</v>
+        <v>72800</v>
       </c>
       <c r="G42">
-        <v>148347</v>
+        <v>74135</v>
       </c>
       <c r="H42">
-        <v>184247</v>
+        <v>75493</v>
       </c>
       <c r="I42">
-        <v>226558</v>
+        <v>76329</v>
       </c>
       <c r="J42">
-        <v>231144</v>
+        <v>76821</v>
       </c>
       <c r="K42">
-        <v>226100</v>
+        <v>76981</v>
+      </c>
+      <c r="L42">
+        <v>77373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ERO</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="B43">
-        <v>160733</v>
+        <v>126915</v>
       </c>
       <c r="C43">
-        <v>163384</v>
+        <v>131006</v>
       </c>
       <c r="D43">
-        <v>163723</v>
+        <v>116451</v>
       </c>
       <c r="E43">
-        <v>167692</v>
+        <v>118116</v>
       </c>
       <c r="F43">
-        <v>172526</v>
+        <v>117705</v>
       </c>
       <c r="G43">
-        <v>175843</v>
+        <v>117624</v>
       </c>
       <c r="H43">
-        <v>176262</v>
+        <v>118440</v>
       </c>
       <c r="I43">
-        <v>176554</v>
+        <v>119851</v>
       </c>
       <c r="J43">
-        <v>175259</v>
+        <v>121899</v>
       </c>
       <c r="K43">
-        <v>171671</v>
+        <v>118868</v>
+      </c>
+      <c r="L43">
+        <v>121150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ESE</t>
+          <t>ETO</t>
         </is>
       </c>
       <c r="B44">
-        <v>68045</v>
+        <v>111186</v>
       </c>
       <c r="C44">
-        <v>69503</v>
+        <v>111748</v>
       </c>
       <c r="D44">
-        <v>70420</v>
+        <v>111785</v>
       </c>
       <c r="E44">
-        <v>71863</v>
+        <v>105331</v>
       </c>
       <c r="F44">
-        <v>72800</v>
+        <v>101860</v>
       </c>
       <c r="G44">
-        <v>74135</v>
+        <v>99498</v>
       </c>
       <c r="H44">
-        <v>75493</v>
+        <v>100284</v>
       </c>
       <c r="I44">
-        <v>76329</v>
+        <v>100886</v>
       </c>
       <c r="J44">
-        <v>76821</v>
+        <v>99005</v>
       </c>
       <c r="K44">
-        <v>76981</v>
+        <v>90060</v>
+      </c>
+      <c r="L44">
+        <v>89034</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>HIDROPAN</t>
         </is>
       </c>
       <c r="B45">
-        <v>126915</v>
+        <v>1611</v>
       </c>
       <c r="C45">
-        <v>131006</v>
+        <v>1644</v>
       </c>
       <c r="D45">
-        <v>116451</v>
+        <v>1656</v>
       </c>
       <c r="E45">
-        <v>118116</v>
+        <v>1685</v>
       </c>
       <c r="F45">
-        <v>117705</v>
+        <v>1707</v>
       </c>
       <c r="G45">
-        <v>117624</v>
+        <v>1709</v>
       </c>
       <c r="H45">
-        <v>118440</v>
+        <v>1698</v>
       </c>
       <c r="I45">
-        <v>119851</v>
+        <v>1744</v>
       </c>
       <c r="J45">
-        <v>121899</v>
+        <v>1776</v>
       </c>
       <c r="K45">
-        <v>118868</v>
+        <v>1832</v>
+      </c>
+      <c r="L45">
+        <v>1893</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ETO</t>
+          <t>LIGHT</t>
         </is>
       </c>
       <c r="B46">
-        <v>111186</v>
+        <v>311709</v>
       </c>
       <c r="C46">
-        <v>111748</v>
+        <v>318697</v>
       </c>
       <c r="D46">
-        <v>111785</v>
+        <v>320058</v>
       </c>
       <c r="E46">
-        <v>105331</v>
+        <v>320134</v>
       </c>
       <c r="F46">
-        <v>101860</v>
+        <v>322912</v>
       </c>
       <c r="G46">
-        <v>99498</v>
+        <v>324337</v>
       </c>
       <c r="H46">
-        <v>100284</v>
+        <v>338714</v>
       </c>
       <c r="I46">
-        <v>100886</v>
+        <v>320580</v>
       </c>
       <c r="J46">
-        <v>99005</v>
+        <v>320167</v>
       </c>
       <c r="K46">
-        <v>90060</v>
+        <v>306360</v>
+      </c>
+      <c r="L46">
+        <v>297023</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HIDROPAN</t>
+          <t>MUXENERGIA</t>
         </is>
       </c>
       <c r="B47">
-        <v>1611</v>
+        <v>1597</v>
       </c>
       <c r="C47">
-        <v>1644</v>
+        <v>1673</v>
       </c>
       <c r="D47">
-        <v>1656</v>
+        <v>1718</v>
       </c>
       <c r="E47">
-        <v>1685</v>
+        <v>1763</v>
       </c>
       <c r="F47">
-        <v>1707</v>
+        <v>1777</v>
       </c>
       <c r="G47">
-        <v>1709</v>
+        <v>1800</v>
       </c>
       <c r="H47">
-        <v>1698</v>
+        <v>1811</v>
       </c>
       <c r="I47">
-        <v>1744</v>
+        <v>1836</v>
       </c>
       <c r="J47">
-        <v>1776</v>
+        <v>1894</v>
       </c>
       <c r="K47">
-        <v>1832</v>
+        <v>1927</v>
+      </c>
+      <c r="L47">
+        <v>1970</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LIGHT</t>
+          <t>OUTRA</t>
         </is>
       </c>
       <c r="B48">
-        <v>311709</v>
+        <v>210303</v>
       </c>
       <c r="C48">
-        <v>318697</v>
+        <v>212666</v>
       </c>
       <c r="D48">
-        <v>320058</v>
+        <v>211259</v>
       </c>
       <c r="E48">
-        <v>320134</v>
+        <v>213428</v>
       </c>
       <c r="F48">
-        <v>322912</v>
+        <v>216317</v>
       </c>
       <c r="G48">
-        <v>324337</v>
+        <v>241058</v>
       </c>
       <c r="H48">
-        <v>338714</v>
+        <v>248341</v>
       </c>
       <c r="I48">
-        <v>320580</v>
+        <v>264407</v>
       </c>
       <c r="J48">
-        <v>320167</v>
+        <v>257680</v>
       </c>
       <c r="K48">
-        <v>306360</v>
+        <v>255248</v>
+      </c>
+      <c r="L48">
+        <v>245763</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MUXENERGIA</t>
+          <t>PACTO</t>
         </is>
       </c>
       <c r="B49">
-        <v>1597</v>
+        <v>1618</v>
       </c>
       <c r="C49">
-        <v>1673</v>
+        <v>1631</v>
       </c>
       <c r="D49">
-        <v>1718</v>
+        <v>1649</v>
       </c>
       <c r="E49">
-        <v>1763</v>
+        <v>1646</v>
       </c>
       <c r="F49">
-        <v>1777</v>
+        <v>1644</v>
       </c>
       <c r="G49">
-        <v>1800</v>
+        <v>1703</v>
       </c>
       <c r="H49">
-        <v>1811</v>
+        <v>1699</v>
       </c>
       <c r="I49">
-        <v>1836</v>
+        <v>1754</v>
       </c>
       <c r="J49">
-        <v>1894</v>
+        <v>1858</v>
       </c>
       <c r="K49">
-        <v>1927</v>
+        <v>1907</v>
+      </c>
+      <c r="L49">
+        <v>1852</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>OUTRA</t>
+          <t>RGE</t>
         </is>
       </c>
       <c r="B50">
-        <v>210303</v>
+        <v>482631</v>
       </c>
       <c r="C50">
-        <v>212666</v>
+        <v>478632</v>
       </c>
       <c r="D50">
-        <v>211259</v>
+        <v>466067</v>
       </c>
       <c r="E50">
-        <v>213428</v>
+        <v>463927</v>
       </c>
       <c r="F50">
-        <v>216317</v>
+        <v>466916</v>
       </c>
       <c r="G50">
-        <v>241058</v>
+        <v>460458</v>
       </c>
       <c r="H50">
-        <v>248341</v>
+        <v>458646</v>
       </c>
       <c r="I50">
-        <v>264407</v>
+        <v>457054</v>
       </c>
       <c r="J50">
-        <v>257680</v>
+        <v>453706</v>
       </c>
       <c r="K50">
-        <v>255248</v>
+        <v>461335</v>
+      </c>
+      <c r="L50">
+        <v>452728</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PACTO</t>
+          <t>RORAIMA</t>
         </is>
       </c>
       <c r="B51">
-        <v>1618</v>
+        <v>26663</v>
       </c>
       <c r="C51">
-        <v>1631</v>
+        <v>28292</v>
       </c>
       <c r="D51">
-        <v>1649</v>
+        <v>30329</v>
       </c>
       <c r="E51">
-        <v>1646</v>
+        <v>30743</v>
       </c>
       <c r="F51">
-        <v>1644</v>
+        <v>31399</v>
       </c>
       <c r="G51">
-        <v>1703</v>
+        <v>32280</v>
       </c>
       <c r="H51">
-        <v>1699</v>
+        <v>32688</v>
       </c>
       <c r="I51">
-        <v>1754</v>
+        <v>33661</v>
       </c>
       <c r="J51">
-        <v>1858</v>
+        <v>36251</v>
       </c>
       <c r="K51">
-        <v>1907</v>
+        <v>27019</v>
+      </c>
+      <c r="L51">
+        <v>28712</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RGE</t>
+          <t>SULGIPE</t>
         </is>
       </c>
       <c r="B52">
-        <v>482631</v>
+        <v>14594</v>
       </c>
       <c r="C52">
-        <v>478632</v>
+        <v>15200</v>
       </c>
       <c r="D52">
-        <v>466067</v>
+        <v>15659</v>
       </c>
       <c r="E52">
-        <v>463927</v>
+        <v>16094</v>
       </c>
       <c r="F52">
-        <v>466916</v>
+        <v>16659</v>
       </c>
       <c r="G52">
-        <v>460458</v>
+        <v>17275</v>
       </c>
       <c r="H52">
-        <v>458646</v>
+        <v>17526</v>
       </c>
       <c r="I52">
-        <v>457054</v>
+        <v>17148</v>
       </c>
       <c r="J52">
-        <v>453706</v>
+        <v>15685</v>
       </c>
       <c r="K52">
-        <v>461335</v>
+        <v>12610</v>
+      </c>
+      <c r="L52">
+        <v>11695</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RORAIMA</t>
+          <t>UHENPAL</t>
         </is>
       </c>
       <c r="B53">
-        <v>26663</v>
+        <v>5708</v>
       </c>
       <c r="C53">
-        <v>28292</v>
+        <v>5784</v>
       </c>
       <c r="D53">
-        <v>30329</v>
+        <v>5823</v>
       </c>
       <c r="E53">
-        <v>30743</v>
+        <v>5891</v>
       </c>
       <c r="F53">
-        <v>31399</v>
+        <v>5987</v>
       </c>
       <c r="G53">
-        <v>32280</v>
+        <v>6056</v>
       </c>
       <c r="H53">
-        <v>32688</v>
+        <v>6142</v>
       </c>
       <c r="I53">
-        <v>33661</v>
+        <v>6250</v>
       </c>
       <c r="J53">
-        <v>36251</v>
+        <v>6285</v>
       </c>
       <c r="K53">
-        <v>27019</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>SULGIPE</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>14594</v>
-      </c>
-      <c r="C54">
-        <v>15200</v>
-      </c>
-      <c r="D54">
-        <v>15659</v>
-      </c>
-      <c r="E54">
-        <v>16094</v>
-      </c>
-      <c r="F54">
-        <v>16659</v>
-      </c>
-      <c r="G54">
-        <v>17275</v>
-      </c>
-      <c r="H54">
-        <v>17526</v>
-      </c>
-      <c r="I54">
-        <v>17148</v>
-      </c>
-      <c r="J54">
-        <v>15685</v>
-      </c>
-      <c r="K54">
-        <v>12610</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>UHENPAL</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>5708</v>
-      </c>
-      <c r="C55">
-        <v>5784</v>
-      </c>
-      <c r="D55">
-        <v>5823</v>
-      </c>
-      <c r="E55">
-        <v>5891</v>
-      </c>
-      <c r="F55">
-        <v>5987</v>
-      </c>
-      <c r="G55">
-        <v>6056</v>
-      </c>
-      <c r="H55">
-        <v>6142</v>
-      </c>
-      <c r="I55">
-        <v>6250</v>
-      </c>
-      <c r="J55">
-        <v>6285</v>
-      </c>
-      <c r="K55">
         <v>6307</v>
+      </c>
+      <c r="L53">
+        <v>6331</v>
       </c>
     </row>
   </sheetData>
